--- a/biology/Zoologie/Eurytides_callias/Eurytides_callias.xlsx
+++ b/biology/Zoologie/Eurytides_callias/Eurytides_callias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurytides callias est une espèce d'insectes lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Eurytides.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurytides callias a été décrit par Lionel Walter Rothschild et Karl Jordan en 1906 sous le nom de Papilio callias [1].
-Noms vernaculaires
-Eurytides callias se nomme Callias Kite Swallowtail en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides callias a été décrit par Lionel Walter Rothschild et Karl Jordan en 1906 sous le nom de Papilio callias .
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eurytides callias est un grand papillon d'une envergure autour de 85 mm de couleur blanche à l'apex un peu pointu avec deux longues fines queues aux postérieures. Les ailes antérieures ont  l'apex marron et une bordure marron. Les postérieures présentent dans la bordure marron des lunules bleues et une tache anale rouge[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides callias se nomme Callias Kite Swallowtail en anglais.
 </t>
         </is>
       </c>
@@ -572,17 +590,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurytides callias est un grand papillon d'une envergure autour de 85 mm de couleur blanche à l'apex un peu pointu avec deux longues fines queues aux postérieures. Les ailes antérieures ont  l'apex marron et une bordure marron. Les postérieures présentent dans la bordure marron des lunules bleues et une tache anale rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eurytides_callias</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_callias</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le Nord de l’Amérique du Sud, en Guyane, au Brésil, dans le Sud du Venezuela, en Équateur et au Pérou[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le Nord de l’Amérique du Sud, en Guyane, au Brésil, dans le Sud du Venezuela, en Équateur et au Pérou.
 Sur les autres projets Wikimedia :
 Eurytides callias, sur Wikimedia CommonsEurytides callias, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurytides_callias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_callias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
